--- a/ACB/BCTT.xlsx
+++ b/ACB/BCTT.xlsx
@@ -2188,372 +2188,372 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>239993</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>310</t>
+          <t>310092</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>318</t>
+          <t>318431</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>369</t>
+          <t>368655</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>556</t>
+          <t>555703</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>528</t>
+          <t>527821</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>348</t>
+          <t>348335</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>1168</t>
+          <t>1167870</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>517</t>
+          <t>516503</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>868</t>
+          <t>868056</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>642</t>
+          <t>641749</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>846</t>
+          <t>845938</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>725</t>
+          <t>725380</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>1029</t>
+          <t>1028775</t>
         </is>
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>1137</t>
+          <t>1137161</t>
         </is>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>1308</t>
+          <t>1308211</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>1269</t>
+          <t>1268511</t>
         </is>
       </c>
       <c r="S8" t="inlineStr">
         <is>
-          <t>1692</t>
+          <t>1692007</t>
         </is>
       </c>
       <c r="T8" t="inlineStr">
         <is>
-          <t>1608</t>
+          <t>1607906</t>
         </is>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>2034</t>
+          <t>2033895</t>
         </is>
       </c>
       <c r="V8" t="inlineStr">
         <is>
-          <t>1612</t>
+          <t>1611676</t>
         </is>
       </c>
       <c r="W8" t="inlineStr">
         <is>
-          <t>1964</t>
+          <t>1964499</t>
         </is>
       </c>
       <c r="X8" t="inlineStr">
         <is>
-          <t>1605</t>
+          <t>1604740</t>
         </is>
       </c>
       <c r="Y8" t="inlineStr">
         <is>
-          <t>1594</t>
+          <t>1594396</t>
         </is>
       </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>1232</t>
+          <t>1231815</t>
         </is>
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>1105</t>
+          <t>1105430</t>
         </is>
       </c>
       <c r="AB8" t="inlineStr">
         <is>
-          <t>1189</t>
+          <t>1188624</t>
         </is>
       </c>
       <c r="AC8" t="inlineStr">
         <is>
-          <t>887</t>
+          <t>886892</t>
         </is>
       </c>
       <c r="AD8" t="inlineStr">
         <is>
-          <t>1055</t>
+          <t>1054976</t>
         </is>
       </c>
       <c r="AE8" t="inlineStr">
         <is>
-          <t>1326</t>
+          <t>1325818</t>
         </is>
       </c>
       <c r="AF8" t="inlineStr">
         <is>
-          <t>998</t>
+          <t>997843</t>
         </is>
       </c>
       <c r="AG8" t="inlineStr">
         <is>
-          <t>1345</t>
+          <t>1344961</t>
         </is>
       </c>
       <c r="AH8" t="inlineStr">
         <is>
-          <t>1390</t>
+          <t>1389588</t>
         </is>
       </c>
       <c r="AI8" t="inlineStr">
         <is>
-          <t>1367</t>
+          <t>1367361</t>
         </is>
       </c>
       <c r="AJ8" t="inlineStr">
         <is>
-          <t>1472</t>
+          <t>1471720</t>
         </is>
       </c>
       <c r="AK8" t="inlineStr">
         <is>
-          <t>1655</t>
+          <t>1654858</t>
         </is>
       </c>
       <c r="AL8" t="inlineStr">
         <is>
-          <t>1582</t>
+          <t>1581570</t>
         </is>
       </c>
       <c r="AM8" t="inlineStr">
         <is>
-          <t>1707</t>
+          <t>1707079</t>
         </is>
       </c>
       <c r="AN8" t="inlineStr">
         <is>
-          <t>1657</t>
+          <t>1656977</t>
         </is>
       </c>
       <c r="AO8" t="inlineStr">
         <is>
-          <t>1946</t>
+          <t>1946263</t>
         </is>
       </c>
       <c r="AP8" t="inlineStr">
         <is>
-          <t>1908</t>
+          <t>1908067</t>
         </is>
       </c>
       <c r="AQ8" t="inlineStr">
         <is>
-          <t>2020</t>
+          <t>2019888</t>
         </is>
       </c>
       <c r="AR8" t="inlineStr">
         <is>
-          <t>2147</t>
+          <t>2147214</t>
         </is>
       </c>
       <c r="AS8" t="inlineStr">
         <is>
-          <t>2383</t>
+          <t>2382585</t>
         </is>
       </c>
       <c r="AT8" t="inlineStr">
         <is>
-          <t>2373</t>
+          <t>2372811</t>
         </is>
       </c>
       <c r="AU8" t="inlineStr">
         <is>
-          <t>2488</t>
+          <t>2488262</t>
         </is>
       </c>
       <c r="AV8" t="inlineStr">
         <is>
-          <t>2563</t>
+          <t>2563243</t>
         </is>
       </c>
       <c r="AW8" t="inlineStr">
         <is>
-          <t>2939</t>
+          <t>2938604</t>
         </is>
       </c>
       <c r="AX8" t="inlineStr">
         <is>
-          <t>2857</t>
+          <t>2856540</t>
         </is>
       </c>
       <c r="AY8" t="inlineStr">
         <is>
-          <t>2903</t>
+          <t>2903004</t>
         </is>
       </c>
       <c r="AZ8" t="inlineStr">
         <is>
-          <t>3023</t>
+          <t>3023025</t>
         </is>
       </c>
       <c r="BA8" t="inlineStr">
         <is>
-          <t>3330</t>
+          <t>3329591</t>
         </is>
       </c>
       <c r="BB8" t="inlineStr">
         <is>
-          <t>3419</t>
+          <t>3419444</t>
         </is>
       </c>
       <c r="BC8" t="inlineStr">
         <is>
-          <t>3112</t>
+          <t>3111946</t>
         </is>
       </c>
       <c r="BD8" t="inlineStr">
         <is>
-          <t>3635</t>
+          <t>3635001</t>
         </is>
       </c>
       <c r="BE8" t="inlineStr">
         <is>
-          <t>4416</t>
+          <t>4415732</t>
         </is>
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>4640</t>
+          <t>4639572</t>
         </is>
       </c>
       <c r="BG8" t="inlineStr">
         <is>
-          <t>4990</t>
+          <t>4990387</t>
         </is>
       </c>
       <c r="BH8" t="inlineStr">
         <is>
-          <t>4521</t>
+          <t>4520511</t>
         </is>
       </c>
       <c r="BI8" t="inlineStr">
         <is>
-          <t>4794</t>
+          <t>4794322</t>
         </is>
       </c>
       <c r="BJ8" t="inlineStr">
         <is>
-          <t>5441</t>
+          <t>5440672</t>
         </is>
       </c>
       <c r="BK8" t="inlineStr">
         <is>
-          <t>5606</t>
+          <t>5606390</t>
         </is>
       </c>
       <c r="BL8" t="inlineStr">
         <is>
-          <t>6032</t>
+          <t>6032250</t>
         </is>
       </c>
       <c r="BM8" t="inlineStr">
         <is>
-          <t>6454</t>
+          <t>6454217</t>
         </is>
       </c>
       <c r="BN8" t="inlineStr">
         <is>
-          <t>6215</t>
+          <t>6215154</t>
         </is>
       </c>
       <c r="BO8" t="inlineStr">
         <is>
-          <t>6246</t>
+          <t>6245672</t>
         </is>
       </c>
       <c r="BP8" t="inlineStr">
         <is>
-          <t>6209</t>
+          <t>6209128</t>
         </is>
       </c>
       <c r="BQ8" t="inlineStr">
         <is>
-          <t>6290</t>
+          <t>6289616</t>
         </is>
       </c>
       <c r="BR8" t="inlineStr">
         <is>
-          <t>6722</t>
+          <t>6721518</t>
         </is>
       </c>
       <c r="BS8" t="inlineStr">
         <is>
-          <t>7112</t>
+          <t>7111506</t>
         </is>
       </c>
       <c r="BT8" t="inlineStr">
         <is>
-          <t>6881</t>
+          <t>6881387</t>
         </is>
       </c>
       <c r="BU8" t="inlineStr">
         <is>
-          <t>7080</t>
+          <t>7080291</t>
         </is>
       </c>
       <c r="BV8" t="inlineStr">
         <is>
-          <t>6359</t>
+          <t>6358865</t>
         </is>
       </c>
       <c r="BW8" t="inlineStr">
         <is>
-          <t>6684</t>
+          <t>6683848</t>
         </is>
       </c>
     </row>
@@ -2565,27 +2565,27 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>306</t>
+          <t>305952</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>340</t>
+          <t>340343</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>41950</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>56</t>
+          <t>56036</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>135423</t>
         </is>
       </c>
       <c r="G9" t="inlineStr"/>
@@ -2593,7 +2593,7 @@
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr">
         <is>
-          <t>130</t>
+          <t>130291</t>
         </is>
       </c>
       <c r="K9" t="inlineStr"/>
@@ -2601,312 +2601,312 @@
       <c r="M9" t="inlineStr"/>
       <c r="N9" t="inlineStr">
         <is>
-          <t>127</t>
+          <t>127293</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>97</t>
+          <t>96708</t>
         </is>
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>144</t>
+          <t>143632</t>
         </is>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>432</t>
+          <t>432261</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>321</t>
+          <t>320778</t>
         </is>
       </c>
       <c r="S9" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>48074</t>
         </is>
       </c>
       <c r="T9" t="inlineStr">
         <is>
-          <t>143</t>
+          <t>143303</t>
         </is>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>310</t>
+          <t>310314</t>
         </is>
       </c>
       <c r="V9" t="inlineStr">
         <is>
-          <t>174</t>
+          <t>173555</t>
         </is>
       </c>
       <c r="W9" t="inlineStr">
         <is>
-          <t>191</t>
+          <t>191186</t>
         </is>
       </c>
       <c r="X9" t="inlineStr">
         <is>
-          <t>173</t>
+          <t>173319</t>
         </is>
       </c>
       <c r="Y9" t="inlineStr">
         <is>
-          <t>165</t>
+          <t>164506</t>
         </is>
       </c>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>171</t>
+          <t>171276</t>
         </is>
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>196</t>
+          <t>196457</t>
         </is>
       </c>
       <c r="AB9" t="inlineStr">
         <is>
-          <t>196</t>
+          <t>195749</t>
         </is>
       </c>
       <c r="AC9" t="inlineStr">
         <is>
-          <t>207</t>
+          <t>206938</t>
         </is>
       </c>
       <c r="AD9" t="inlineStr">
         <is>
-          <t>201</t>
+          <t>200516</t>
         </is>
       </c>
       <c r="AE9" t="inlineStr">
         <is>
-          <t>161</t>
+          <t>161278</t>
         </is>
       </c>
       <c r="AF9" t="inlineStr">
         <is>
-          <t>184</t>
+          <t>184111</t>
         </is>
       </c>
       <c r="AG9" t="inlineStr">
         <is>
-          <t>191</t>
+          <t>190570</t>
         </is>
       </c>
       <c r="AH9" t="inlineStr">
         <is>
-          <t>168</t>
+          <t>168194</t>
         </is>
       </c>
       <c r="AI9" t="inlineStr">
         <is>
-          <t>169</t>
+          <t>168710</t>
         </is>
       </c>
       <c r="AJ9" t="inlineStr">
         <is>
-          <t>199</t>
+          <t>198868</t>
         </is>
       </c>
       <c r="AK9" t="inlineStr">
         <is>
-          <t>209</t>
+          <t>209454</t>
         </is>
       </c>
       <c r="AL9" t="inlineStr">
         <is>
-          <t>201</t>
+          <t>201271</t>
         </is>
       </c>
       <c r="AM9" t="inlineStr">
         <is>
-          <t>223</t>
+          <t>222933</t>
         </is>
       </c>
       <c r="AN9" t="inlineStr">
         <is>
-          <t>236</t>
+          <t>236381</t>
         </is>
       </c>
       <c r="AO9" t="inlineStr">
         <is>
-          <t>284</t>
+          <t>283797</t>
         </is>
       </c>
       <c r="AP9" t="inlineStr">
         <is>
-          <t>248</t>
+          <t>247925</t>
         </is>
       </c>
       <c r="AQ9" t="inlineStr">
         <is>
-          <t>293</t>
+          <t>292994</t>
         </is>
       </c>
       <c r="AR9" t="inlineStr">
         <is>
-          <t>309</t>
+          <t>308693</t>
         </is>
       </c>
       <c r="AS9" t="inlineStr">
         <is>
-          <t>339</t>
+          <t>338719</t>
         </is>
       </c>
       <c r="AT9" t="inlineStr">
         <is>
-          <t>353</t>
+          <t>352944</t>
         </is>
       </c>
       <c r="AU9" t="inlineStr">
         <is>
-          <t>394</t>
+          <t>393709</t>
         </is>
       </c>
       <c r="AV9" t="inlineStr">
         <is>
-          <t>328</t>
+          <t>328422</t>
         </is>
       </c>
       <c r="AW9" t="inlineStr">
         <is>
-          <t>422</t>
+          <t>422451</t>
         </is>
       </c>
       <c r="AX9" t="inlineStr">
         <is>
-          <t>371</t>
+          <t>371447</t>
         </is>
       </c>
       <c r="AY9" t="inlineStr">
         <is>
-          <t>520</t>
+          <t>520103</t>
         </is>
       </c>
       <c r="AZ9" t="inlineStr">
         <is>
-          <t>519</t>
+          <t>519138</t>
         </is>
       </c>
       <c r="BA9" t="inlineStr">
         <is>
-          <t>486</t>
+          <t>485804</t>
         </is>
       </c>
       <c r="BB9" t="inlineStr">
         <is>
-          <t>371</t>
+          <t>370712</t>
         </is>
       </c>
       <c r="BC9" t="inlineStr">
         <is>
-          <t>427</t>
+          <t>426659</t>
         </is>
       </c>
       <c r="BD9" t="inlineStr">
         <is>
-          <t>492</t>
+          <t>491577</t>
         </is>
       </c>
       <c r="BE9" t="inlineStr">
         <is>
-          <t>406</t>
+          <t>405706</t>
         </is>
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>625</t>
+          <t>625207</t>
         </is>
       </c>
       <c r="BG9" t="inlineStr">
         <is>
-          <t>886</t>
+          <t>886379</t>
         </is>
       </c>
       <c r="BH9" t="inlineStr">
         <is>
-          <t>636</t>
+          <t>635559</t>
         </is>
       </c>
       <c r="BI9" t="inlineStr">
         <is>
-          <t>747</t>
+          <t>746818</t>
         </is>
       </c>
       <c r="BJ9" t="inlineStr">
         <is>
-          <t>739</t>
+          <t>739159</t>
         </is>
       </c>
       <c r="BK9" t="inlineStr">
         <is>
-          <t>993</t>
+          <t>993267</t>
         </is>
       </c>
       <c r="BL9" t="inlineStr">
         <is>
-          <t>867</t>
+          <t>866785</t>
         </is>
       </c>
       <c r="BM9" t="inlineStr">
         <is>
-          <t>927</t>
+          <t>927033</t>
         </is>
       </c>
       <c r="BN9" t="inlineStr">
         <is>
-          <t>627</t>
+          <t>627066</t>
         </is>
       </c>
       <c r="BO9" t="inlineStr">
         <is>
-          <t>804</t>
+          <t>804386</t>
         </is>
       </c>
       <c r="BP9" t="inlineStr">
         <is>
-          <t>764</t>
+          <t>763587</t>
         </is>
       </c>
       <c r="BQ9" t="inlineStr">
         <is>
-          <t>727</t>
+          <t>727298</t>
         </is>
       </c>
       <c r="BR9" t="inlineStr">
         <is>
-          <t>745</t>
+          <t>745202</t>
         </is>
       </c>
       <c r="BS9" t="inlineStr">
         <is>
-          <t>878</t>
+          <t>877569</t>
         </is>
       </c>
       <c r="BT9" t="inlineStr">
         <is>
-          <t>747</t>
+          <t>747189</t>
         </is>
       </c>
       <c r="BU9" t="inlineStr">
         <is>
-          <t>869</t>
+          <t>868825</t>
         </is>
       </c>
       <c r="BV9" t="inlineStr">
         <is>
-          <t>872</t>
+          <t>872313</t>
         </is>
       </c>
       <c r="BW9" t="inlineStr">
         <is>
-          <t>585</t>
+          <t>584731</t>
         </is>
       </c>
     </row>
@@ -2928,17 +2928,17 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>15080</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>-17</t>
+          <t>-17119</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>129</t>
+          <t>129193</t>
         </is>
       </c>
       <c r="G10" t="inlineStr"/>
@@ -2946,7 +2946,7 @@
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr">
         <is>
-          <t>311</t>
+          <t>311159</t>
         </is>
       </c>
       <c r="K10" t="inlineStr"/>
@@ -2954,312 +2954,312 @@
       <c r="M10" t="inlineStr"/>
       <c r="N10" t="inlineStr">
         <is>
-          <t>105</t>
+          <t>104613</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>171</t>
+          <t>170732</t>
         </is>
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>44662</t>
         </is>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>-129</t>
+          <t>-128903</t>
         </is>
       </c>
       <c r="R10" t="inlineStr">
         <is>
-          <t>-30</t>
+          <t>-29797</t>
         </is>
       </c>
       <c r="S10" t="inlineStr">
         <is>
-          <t>-74</t>
+          <t>-74122</t>
         </is>
       </c>
       <c r="T10" t="inlineStr">
         <is>
-          <t>-84</t>
+          <t>-83713</t>
         </is>
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>26497</t>
         </is>
       </c>
       <c r="V10" t="inlineStr">
         <is>
-          <t>67</t>
+          <t>67111</t>
         </is>
       </c>
       <c r="W10" t="inlineStr">
         <is>
-          <t>-52</t>
+          <t>-51504</t>
         </is>
       </c>
       <c r="X10" t="inlineStr">
         <is>
-          <t>-1144</t>
+          <t>-1144459</t>
         </is>
       </c>
       <c r="Y10" t="inlineStr">
         <is>
-          <t>-612</t>
+          <t>-612408</t>
         </is>
       </c>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>-84</t>
+          <t>-83960</t>
         </is>
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>30294</t>
         </is>
       </c>
       <c r="AB10" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>10136</t>
         </is>
       </c>
       <c r="AC10" t="inlineStr">
         <is>
-          <t>-34</t>
+          <t>-34086</t>
         </is>
       </c>
       <c r="AD10" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>51249</t>
         </is>
       </c>
       <c r="AE10" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>42672</t>
         </is>
       </c>
       <c r="AF10" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>39873</t>
         </is>
       </c>
       <c r="AG10" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>49840</t>
         </is>
       </c>
       <c r="AH10" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>20837</t>
         </is>
       </c>
       <c r="AI10" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>26289</t>
         </is>
       </c>
       <c r="AJ10" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>8573</t>
         </is>
       </c>
       <c r="AK10" t="inlineStr">
         <is>
-          <t>65</t>
+          <t>64925</t>
         </is>
       </c>
       <c r="AL10" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>42564</t>
         </is>
       </c>
       <c r="AM10" t="inlineStr">
         <is>
-          <t>56</t>
+          <t>56231</t>
         </is>
       </c>
       <c r="AN10" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>51701</t>
         </is>
       </c>
       <c r="AO10" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>79600</t>
         </is>
       </c>
       <c r="AP10" t="inlineStr">
         <is>
-          <t>67</t>
+          <t>66684</t>
         </is>
       </c>
       <c r="AQ10" t="inlineStr">
         <is>
-          <t>59</t>
+          <t>58518</t>
         </is>
       </c>
       <c r="AR10" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>54375</t>
         </is>
       </c>
       <c r="AS10" t="inlineStr">
         <is>
-          <t>57</t>
+          <t>57152</t>
         </is>
       </c>
       <c r="AT10" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>78423</t>
         </is>
       </c>
       <c r="AU10" t="inlineStr">
         <is>
-          <t>69</t>
+          <t>68586</t>
         </is>
       </c>
       <c r="AV10" t="inlineStr">
         <is>
-          <t>161</t>
+          <t>160887</t>
         </is>
       </c>
       <c r="AW10" t="inlineStr">
         <is>
-          <t>-67</t>
+          <t>-66506</t>
         </is>
       </c>
       <c r="AX10" t="inlineStr">
         <is>
-          <t>81</t>
+          <t>80552</t>
         </is>
       </c>
       <c r="AY10" t="inlineStr">
         <is>
-          <t>69</t>
+          <t>68747</t>
         </is>
       </c>
       <c r="AZ10" t="inlineStr">
         <is>
-          <t>142</t>
+          <t>142048</t>
         </is>
       </c>
       <c r="BA10" t="inlineStr">
         <is>
-          <t>139</t>
+          <t>138978</t>
         </is>
       </c>
       <c r="BB10" t="inlineStr">
         <is>
-          <t>143</t>
+          <t>142870</t>
         </is>
       </c>
       <c r="BC10" t="inlineStr">
         <is>
-          <t>153</t>
+          <t>152824</t>
         </is>
       </c>
       <c r="BD10" t="inlineStr">
         <is>
-          <t>193</t>
+          <t>192807</t>
         </is>
       </c>
       <c r="BE10" t="inlineStr">
         <is>
-          <t>199</t>
+          <t>198686</t>
         </is>
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>196</t>
+          <t>196140</t>
         </is>
       </c>
       <c r="BG10" t="inlineStr">
         <is>
-          <t>232</t>
+          <t>231524</t>
         </is>
       </c>
       <c r="BH10" t="inlineStr">
         <is>
-          <t>206</t>
+          <t>205933</t>
         </is>
       </c>
       <c r="BI10" t="inlineStr">
         <is>
-          <t>238</t>
+          <t>237959</t>
         </is>
       </c>
       <c r="BJ10" t="inlineStr">
         <is>
-          <t>303</t>
+          <t>303367</t>
         </is>
       </c>
       <c r="BK10" t="inlineStr">
         <is>
-          <t>145</t>
+          <t>145269</t>
         </is>
       </c>
       <c r="BL10" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>95844</t>
         </is>
       </c>
       <c r="BM10" t="inlineStr">
         <is>
-          <t>504</t>
+          <t>503889</t>
         </is>
       </c>
       <c r="BN10" t="inlineStr">
         <is>
-          <t>438</t>
+          <t>437956</t>
         </is>
       </c>
       <c r="BO10" t="inlineStr">
         <is>
-          <t>327</t>
+          <t>327437</t>
         </is>
       </c>
       <c r="BP10" t="inlineStr">
         <is>
-          <t>316</t>
+          <t>315762</t>
         </is>
       </c>
       <c r="BQ10" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>28950</t>
         </is>
       </c>
       <c r="BR10" t="inlineStr">
         <is>
-          <t>233</t>
+          <t>233300</t>
         </is>
       </c>
       <c r="BS10" t="inlineStr">
         <is>
-          <t>427</t>
+          <t>426650</t>
         </is>
       </c>
       <c r="BT10" t="inlineStr">
         <is>
-          <t>167</t>
+          <t>166635</t>
         </is>
       </c>
       <c r="BU10" t="inlineStr">
         <is>
-          <t>344</t>
+          <t>344167</t>
         </is>
       </c>
       <c r="BV10" t="inlineStr">
         <is>
-          <t>476</t>
+          <t>475590</t>
         </is>
       </c>
       <c r="BW10" t="inlineStr">
         <is>
-          <t>670</t>
+          <t>670005</t>
         </is>
       </c>
     </row>
@@ -3287,7 +3287,7 @@
       <c r="E11" t="inlineStr"/>
       <c r="F11" t="inlineStr">
         <is>
-          <t>-1</t>
+          <t>-1488</t>
         </is>
       </c>
       <c r="G11" t="inlineStr"/>
@@ -3295,7 +3295,7 @@
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>60</t>
         </is>
       </c>
       <c r="K11" t="inlineStr"/>
@@ -3303,7 +3303,7 @@
       <c r="M11" t="inlineStr"/>
       <c r="N11" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3881</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
@@ -3313,302 +3313,302 @@
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>-47</t>
+          <t>-46736</t>
         </is>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>51656</t>
         </is>
       </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t>-21</t>
+          <t>-21101</t>
         </is>
       </c>
       <c r="S11" t="inlineStr">
         <is>
-          <t>-77</t>
+          <t>-76936</t>
         </is>
       </c>
       <c r="T11" t="inlineStr">
         <is>
-          <t>73</t>
+          <t>73481</t>
         </is>
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>327</t>
+          <t>326629</t>
         </is>
       </c>
       <c r="V11" t="inlineStr">
         <is>
-          <t>170</t>
+          <t>169936</t>
         </is>
       </c>
       <c r="W11" t="inlineStr">
         <is>
-          <t>95</t>
+          <t>95189</t>
         </is>
       </c>
       <c r="X11" t="inlineStr">
         <is>
-          <t>-28</t>
+          <t>-28485</t>
         </is>
       </c>
       <c r="Y11" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>19353</t>
         </is>
       </c>
       <c r="Z11" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>29885</t>
         </is>
       </c>
       <c r="AA11" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>14631</t>
         </is>
       </c>
       <c r="AB11" t="inlineStr">
         <is>
-          <t>-20</t>
+          <t>-20410</t>
         </is>
       </c>
       <c r="AC11" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>7335</t>
         </is>
       </c>
       <c r="AD11" t="inlineStr">
         <is>
-          <t>106</t>
+          <t>105614</t>
         </is>
       </c>
       <c r="AE11" t="inlineStr">
         <is>
-          <t>-2</t>
+          <t>-2210</t>
         </is>
       </c>
       <c r="AF11" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>39558</t>
         </is>
       </c>
       <c r="AG11" t="inlineStr">
         <is>
-          <t>-33</t>
+          <t>-32589</t>
         </is>
       </c>
       <c r="AH11" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>37519</t>
         </is>
       </c>
       <c r="AI11" t="inlineStr">
         <is>
-          <t>-32</t>
+          <t>-31667</t>
         </is>
       </c>
       <c r="AJ11" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>3430</t>
         </is>
       </c>
       <c r="AK11" t="inlineStr">
         <is>
-          <t>-41</t>
+          <t>-40577</t>
         </is>
       </c>
       <c r="AL11" t="inlineStr">
         <is>
-          <t>-4</t>
+          <t>-4005</t>
         </is>
       </c>
       <c r="AM11" t="inlineStr">
         <is>
-          <t>-6</t>
+          <t>-6090</t>
         </is>
       </c>
       <c r="AN11" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>7608</t>
         </is>
       </c>
       <c r="AO11" t="inlineStr">
         <is>
-          <t>75</t>
+          <t>74570</t>
         </is>
       </c>
       <c r="AP11" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>39679</t>
         </is>
       </c>
       <c r="AQ11" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>13181</t>
         </is>
       </c>
       <c r="AR11" t="inlineStr">
         <is>
-          <t>-26</t>
+          <t>-26107</t>
         </is>
       </c>
       <c r="AS11" t="inlineStr">
         <is>
-          <t>-1</t>
+          <t>-1448</t>
         </is>
       </c>
       <c r="AT11" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>5392</t>
         </is>
       </c>
       <c r="AU11" t="inlineStr">
         <is>
-          <t>-34</t>
+          <t>-34164</t>
         </is>
       </c>
       <c r="AV11" t="inlineStr">
         <is>
-          <t>-19</t>
+          <t>-18545</t>
         </is>
       </c>
       <c r="AW11" t="inlineStr">
         <is>
-          <t>-31</t>
+          <t>-31012</t>
         </is>
       </c>
       <c r="AX11" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>26120</t>
         </is>
       </c>
       <c r="AY11" t="inlineStr">
         <is>
-          <t>-4</t>
+          <t>-3942</t>
         </is>
       </c>
       <c r="AZ11" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>51801</t>
         </is>
       </c>
       <c r="BA11" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>1227</t>
         </is>
       </c>
       <c r="BB11" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>14638</t>
         </is>
       </c>
       <c r="BC11" t="inlineStr">
         <is>
-          <t>71</t>
+          <t>70908</t>
         </is>
       </c>
       <c r="BD11" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>17433</t>
         </is>
       </c>
       <c r="BE11" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>63524</t>
         </is>
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>113</t>
+          <t>113492</t>
         </is>
       </c>
       <c r="BG11" t="inlineStr">
         <is>
-          <t>92</t>
+          <t>91668</t>
         </is>
       </c>
       <c r="BH11" t="inlineStr">
         <is>
-          <t>183</t>
+          <t>183481</t>
         </is>
       </c>
       <c r="BI11" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>61319</t>
         </is>
       </c>
       <c r="BJ11" t="inlineStr">
         <is>
-          <t>-11</t>
+          <t>-11224</t>
         </is>
       </c>
       <c r="BK11" t="inlineStr">
         <is>
-          <t>-227</t>
+          <t>-226653</t>
         </is>
       </c>
       <c r="BL11" t="inlineStr">
         <is>
-          <t>-40</t>
+          <t>-39964</t>
         </is>
       </c>
       <c r="BM11" t="inlineStr">
         <is>
-          <t>-110</t>
+          <t>-110032</t>
         </is>
       </c>
       <c r="BN11" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>42982</t>
         </is>
       </c>
       <c r="BO11" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>71566</t>
         </is>
       </c>
       <c r="BP11" t="inlineStr">
         <is>
-          <t>68</t>
+          <t>67760</t>
         </is>
       </c>
       <c r="BQ11" t="inlineStr">
         <is>
-          <t>-14</t>
+          <t>-13925</t>
         </is>
       </c>
       <c r="BR11" t="inlineStr">
         <is>
-          <t>196</t>
+          <t>196391</t>
         </is>
       </c>
       <c r="BS11" t="inlineStr">
         <is>
-          <t>-41</t>
+          <t>-41231</t>
         </is>
       </c>
       <c r="BT11" t="inlineStr">
         <is>
-          <t>71</t>
+          <t>71287</t>
         </is>
       </c>
       <c r="BU11" t="inlineStr">
         <is>
-          <t>-26</t>
+          <t>-26090</t>
         </is>
       </c>
       <c r="BV11" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>23799</t>
         </is>
       </c>
       <c r="BW11" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>36590</t>
         </is>
       </c>
     </row>
@@ -3630,17 +3630,17 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>373</t>
+          <t>372804</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>10450</t>
         </is>
       </c>
       <c r="G12" t="inlineStr"/>
@@ -3648,7 +3648,7 @@
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>17049</t>
         </is>
       </c>
       <c r="K12" t="inlineStr"/>
@@ -3656,312 +3656,312 @@
       <c r="M12" t="inlineStr"/>
       <c r="N12" t="inlineStr">
         <is>
-          <t>56</t>
+          <t>55935</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>453</t>
         </is>
       </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1713</t>
         </is>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>-3</t>
+          <t>-2702</t>
         </is>
       </c>
       <c r="R12" t="inlineStr">
         <is>
-          <t>-11</t>
+          <t>-10572</t>
         </is>
       </c>
       <c r="S12" t="inlineStr">
         <is>
-          <t>102</t>
+          <t>101545</t>
         </is>
       </c>
       <c r="T12" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>5503</t>
         </is>
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>-214</t>
+          <t>-214044</t>
         </is>
       </c>
       <c r="V12" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>14318</t>
         </is>
       </c>
       <c r="W12" t="inlineStr">
         <is>
-          <t>-6</t>
+          <t>-6457</t>
         </is>
       </c>
       <c r="X12" t="inlineStr">
         <is>
-          <t>-10</t>
+          <t>-9927</t>
         </is>
       </c>
       <c r="Y12" t="inlineStr">
         <is>
-          <t>-211</t>
+          <t>-210977</t>
         </is>
       </c>
       <c r="Z12" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>49736</t>
         </is>
       </c>
       <c r="AA12" t="inlineStr">
         <is>
-          <t>128</t>
+          <t>127993</t>
         </is>
       </c>
       <c r="AB12" t="inlineStr">
         <is>
-          <t>185</t>
+          <t>184598</t>
         </is>
       </c>
       <c r="AC12" t="inlineStr">
         <is>
-          <t>-75</t>
+          <t>-74633</t>
         </is>
       </c>
       <c r="AD12" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>9680</t>
         </is>
       </c>
       <c r="AE12" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>42341</t>
         </is>
       </c>
       <c r="AF12" t="inlineStr">
         <is>
-          <t>75</t>
+          <t>74958</t>
         </is>
       </c>
       <c r="AG12" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>49307</t>
         </is>
       </c>
       <c r="AH12" t="inlineStr">
         <is>
-          <t>-30</t>
+          <t>-30117</t>
         </is>
       </c>
       <c r="AI12" t="inlineStr">
         <is>
-          <t>-8</t>
+          <t>-8252</t>
         </is>
       </c>
       <c r="AJ12" t="inlineStr">
         <is>
-          <t>270</t>
+          <t>269790</t>
         </is>
       </c>
       <c r="AK12" t="inlineStr">
         <is>
-          <t>-993</t>
+          <t>-993182</t>
         </is>
       </c>
       <c r="AL12" t="inlineStr">
         <is>
-          <t>-184</t>
+          <t>-183604</t>
         </is>
       </c>
       <c r="AM12" t="inlineStr">
         <is>
-          <t>-278</t>
+          <t>-278268</t>
         </is>
       </c>
       <c r="AN12" t="inlineStr">
         <is>
-          <t>-140</t>
+          <t>-140336</t>
         </is>
       </c>
       <c r="AO12" t="inlineStr">
         <is>
-          <t>-284</t>
+          <t>-283755</t>
         </is>
       </c>
       <c r="AP12" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>45285</t>
         </is>
       </c>
       <c r="AQ12" t="inlineStr">
         <is>
-          <t>327</t>
+          <t>326630</t>
         </is>
       </c>
       <c r="AR12" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2535</t>
         </is>
       </c>
       <c r="AS12" t="inlineStr">
         <is>
-          <t>229</t>
+          <t>228629</t>
         </is>
       </c>
       <c r="AT12" t="inlineStr">
         <is>
-          <t>138</t>
+          <t>137835</t>
         </is>
       </c>
       <c r="AU12" t="inlineStr">
         <is>
-          <t>-75</t>
+          <t>-74923</t>
         </is>
       </c>
       <c r="AV12" t="inlineStr">
         <is>
-          <t>123</t>
+          <t>123170</t>
         </is>
       </c>
       <c r="AW12" t="inlineStr">
         <is>
-          <t>-18</t>
+          <t>-17548</t>
         </is>
       </c>
       <c r="AX12" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>18446</t>
         </is>
       </c>
       <c r="AY12" t="inlineStr">
         <is>
-          <t>-27</t>
+          <t>-26749</t>
         </is>
       </c>
       <c r="AZ12" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>11967</t>
         </is>
       </c>
       <c r="BA12" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>50658</t>
         </is>
       </c>
       <c r="BB12" t="inlineStr">
         <is>
-          <t>349</t>
+          <t>348787</t>
         </is>
       </c>
       <c r="BC12" t="inlineStr">
         <is>
-          <t>313</t>
+          <t>313391</t>
         </is>
       </c>
       <c r="BD12" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>37526</t>
         </is>
       </c>
       <c r="BE12" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>32411</t>
         </is>
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>48939</t>
         </is>
       </c>
       <c r="BG12" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>44709</t>
         </is>
       </c>
       <c r="BH12" t="inlineStr">
         <is>
-          <t>92</t>
+          <t>92038</t>
         </is>
       </c>
       <c r="BI12" t="inlineStr">
         <is>
-          <t>58</t>
+          <t>58365</t>
         </is>
       </c>
       <c r="BJ12" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>6505</t>
         </is>
       </c>
       <c r="BK12" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>18353</t>
         </is>
       </c>
       <c r="BL12" t="inlineStr">
         <is>
-          <t>-2</t>
+          <t>-1502</t>
         </is>
       </c>
       <c r="BM12" t="inlineStr">
         <is>
-          <t>-3</t>
+          <t>-2708</t>
         </is>
       </c>
       <c r="BN12" t="inlineStr">
         <is>
-          <t>-1</t>
+          <t>-1032</t>
         </is>
       </c>
       <c r="BO12" t="inlineStr">
         <is>
-          <t>408</t>
+          <t>407802</t>
         </is>
       </c>
       <c r="BP12" t="inlineStr">
         <is>
-          <t>882</t>
+          <t>881942</t>
         </is>
       </c>
       <c r="BQ12" t="inlineStr">
         <is>
-          <t>1358</t>
+          <t>1358428</t>
         </is>
       </c>
       <c r="BR12" t="inlineStr">
         <is>
-          <t>204</t>
+          <t>204068</t>
         </is>
       </c>
       <c r="BS12" t="inlineStr">
         <is>
-          <t>-14</t>
+          <t>-14005</t>
         </is>
       </c>
       <c r="BT12" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>47199</t>
         </is>
       </c>
       <c r="BU12" t="inlineStr">
         <is>
-          <t>213</t>
+          <t>213050</t>
         </is>
       </c>
       <c r="BV12" t="inlineStr">
         <is>
-          <t>-1</t>
+          <t>-1495</t>
         </is>
       </c>
       <c r="BW12" t="inlineStr">
         <is>
-          <t>446</t>
+          <t>446091</t>
         </is>
       </c>
     </row>
@@ -3973,27 +3973,27 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>19620</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>-13</t>
+          <t>-12786</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>103</t>
+          <t>102715</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>-8</t>
+          <t>-7999</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>25498</t>
         </is>
       </c>
       <c r="G13" t="inlineStr"/>
@@ -4001,7 +4001,7 @@
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>20767</t>
         </is>
       </c>
       <c r="K13" t="inlineStr"/>
@@ -4009,312 +4009,312 @@
       <c r="M13" t="inlineStr"/>
       <c r="N13" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>472</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>401</t>
         </is>
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>5626</t>
         </is>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>23120</t>
         </is>
       </c>
       <c r="R13" t="inlineStr">
         <is>
-          <t>-29</t>
+          <t>-28957</t>
         </is>
       </c>
       <c r="S13" t="inlineStr">
         <is>
-          <t>-29</t>
+          <t>-29062</t>
         </is>
       </c>
       <c r="T13" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>4244</t>
         </is>
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>51100</t>
         </is>
       </c>
       <c r="V13" t="inlineStr">
         <is>
-          <t>-5</t>
+          <t>-5103</t>
         </is>
       </c>
       <c r="W13" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3741</t>
         </is>
       </c>
       <c r="X13" t="inlineStr">
         <is>
-          <t>-6</t>
+          <t>-6021</t>
         </is>
       </c>
       <c r="Y13" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>9099</t>
         </is>
       </c>
       <c r="Z13" t="inlineStr">
         <is>
-          <t>-3</t>
+          <t>-2753</t>
         </is>
       </c>
       <c r="AA13" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>363</t>
         </is>
       </c>
       <c r="AB13" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>11876</t>
         </is>
       </c>
       <c r="AC13" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>22864</t>
         </is>
       </c>
       <c r="AD13" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>12971</t>
         </is>
       </c>
       <c r="AE13" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>37869</t>
         </is>
       </c>
       <c r="AF13" t="inlineStr">
         <is>
-          <t>-6</t>
+          <t>-6117</t>
         </is>
       </c>
       <c r="AG13" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>4336</t>
         </is>
       </c>
       <c r="AH13" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>19038</t>
         </is>
       </c>
       <c r="AI13" t="inlineStr">
         <is>
-          <t>63</t>
+          <t>62604</t>
         </is>
       </c>
       <c r="AJ13" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>46175</t>
         </is>
       </c>
       <c r="AK13" t="inlineStr">
         <is>
-          <t>115</t>
+          <t>114666</t>
         </is>
       </c>
       <c r="AL13" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>59947</t>
         </is>
       </c>
       <c r="AM13" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>35098</t>
         </is>
       </c>
       <c r="AN13" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>32838</t>
         </is>
       </c>
       <c r="AO13" t="inlineStr">
         <is>
-          <t>157</t>
+          <t>157297</t>
         </is>
       </c>
       <c r="AP13" t="inlineStr">
         <is>
-          <t>363</t>
+          <t>362704</t>
         </is>
       </c>
       <c r="AQ13" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>45897</t>
         </is>
       </c>
       <c r="AR13" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>41075</t>
         </is>
       </c>
       <c r="AS13" t="inlineStr">
         <is>
-          <t>442</t>
+          <t>441966</t>
         </is>
       </c>
       <c r="AT13" t="inlineStr">
         <is>
-          <t>351</t>
+          <t>350605</t>
         </is>
       </c>
       <c r="AU13" t="inlineStr">
         <is>
-          <t>356</t>
+          <t>355563</t>
         </is>
       </c>
       <c r="AV13" t="inlineStr">
         <is>
-          <t>192</t>
+          <t>191883</t>
         </is>
       </c>
       <c r="AW13" t="inlineStr">
         <is>
-          <t>917</t>
+          <t>916720</t>
         </is>
       </c>
       <c r="AX13" t="inlineStr">
         <is>
-          <t>134</t>
+          <t>133732</t>
         </is>
       </c>
       <c r="AY13" t="inlineStr">
         <is>
-          <t>480</t>
+          <t>479539</t>
         </is>
       </c>
       <c r="AZ13" t="inlineStr">
         <is>
-          <t>84</t>
+          <t>83920</t>
         </is>
       </c>
       <c r="BA13" t="inlineStr">
         <is>
-          <t>803</t>
+          <t>802949</t>
         </is>
       </c>
       <c r="BB13" t="inlineStr">
         <is>
-          <t>81</t>
+          <t>80509</t>
         </is>
       </c>
       <c r="BC13" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>21990</t>
         </is>
       </c>
       <c r="BD13" t="inlineStr">
         <is>
-          <t>111</t>
+          <t>111235</t>
         </is>
       </c>
       <c r="BE13" t="inlineStr">
         <is>
-          <t>66</t>
+          <t>65916</t>
         </is>
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>48947</t>
         </is>
       </c>
       <c r="BG13" t="inlineStr">
         <is>
-          <t>-21</t>
+          <t>-20912</t>
         </is>
       </c>
       <c r="BH13" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>42327</t>
         </is>
       </c>
       <c r="BI13" t="inlineStr">
         <is>
-          <t>69</t>
+          <t>69101</t>
         </is>
       </c>
       <c r="BJ13" t="inlineStr">
         <is>
-          <t>369</t>
+          <t>369191</t>
         </is>
       </c>
       <c r="BK13" t="inlineStr">
         <is>
-          <t>356</t>
+          <t>356089</t>
         </is>
       </c>
       <c r="BL13" t="inlineStr">
         <is>
-          <t>124</t>
+          <t>123837</t>
         </is>
       </c>
       <c r="BM13" t="inlineStr">
         <is>
-          <t>141</t>
+          <t>140577</t>
         </is>
       </c>
       <c r="BN13" t="inlineStr">
         <is>
-          <t>567</t>
+          <t>567244</t>
         </is>
       </c>
       <c r="BO13" t="inlineStr">
         <is>
-          <t>163</t>
+          <t>162883</t>
         </is>
       </c>
       <c r="BP13" t="inlineStr">
         <is>
-          <t>147</t>
+          <t>147037</t>
         </is>
       </c>
       <c r="BQ13" t="inlineStr">
         <is>
-          <t>-14</t>
+          <t>-13793</t>
         </is>
       </c>
       <c r="BR13" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>62416</t>
         </is>
       </c>
       <c r="BS13" t="inlineStr">
         <is>
-          <t>286</t>
+          <t>285871</t>
         </is>
       </c>
       <c r="BT13" t="inlineStr">
         <is>
-          <t>203</t>
+          <t>202760</t>
         </is>
       </c>
       <c r="BU13" t="inlineStr">
         <is>
-          <t>73</t>
+          <t>72590</t>
         </is>
       </c>
       <c r="BV13" t="inlineStr">
         <is>
-          <t>182</t>
+          <t>182385</t>
         </is>
       </c>
       <c r="BW13" t="inlineStr">
         <is>
-          <t>813</t>
+          <t>812723</t>
         </is>
       </c>
     </row>
@@ -4336,17 +4336,17 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>118</t>
+          <t>117612</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>119831</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>4152</t>
         </is>
       </c>
       <c r="G14" t="inlineStr"/>
@@ -4354,7 +4354,7 @@
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>14904</t>
         </is>
       </c>
       <c r="K14" t="inlineStr"/>
@@ -4362,312 +4362,312 @@
       <c r="M14" t="inlineStr"/>
       <c r="N14" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>20246</t>
         </is>
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>296</t>
+          <t>296354</t>
         </is>
       </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>26821</t>
         </is>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>112</t>
+          <t>111975</t>
         </is>
       </c>
       <c r="R14" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>5449</t>
         </is>
       </c>
       <c r="S14" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>23184</t>
         </is>
       </c>
       <c r="T14" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>13314</t>
         </is>
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>176</t>
+          <t>176230</t>
         </is>
       </c>
       <c r="V14" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>41912</t>
         </is>
       </c>
       <c r="W14" t="inlineStr">
         <is>
-          <t>68</t>
+          <t>68355</t>
         </is>
       </c>
       <c r="X14" t="inlineStr">
         <is>
+          <t>895</t>
+        </is>
+      </c>
+      <c r="Y14" t="inlineStr">
+        <is>
+          <t>33884</t>
+        </is>
+      </c>
+      <c r="Z14" t="inlineStr">
+        <is>
+          <t>45376</t>
+        </is>
+      </c>
+      <c r="AA14" t="inlineStr">
+        <is>
+          <t>14577</t>
+        </is>
+      </c>
+      <c r="AB14" t="inlineStr">
+        <is>
+          <t>470</t>
+        </is>
+      </c>
+      <c r="AC14" t="inlineStr">
+        <is>
+          <t>11759</t>
+        </is>
+      </c>
+      <c r="AD14" t="inlineStr">
+        <is>
+          <t>4732</t>
+        </is>
+      </c>
+      <c r="AE14" t="inlineStr">
+        <is>
+          <t>10944</t>
+        </is>
+      </c>
+      <c r="AF14" t="inlineStr">
+        <is>
+          <t>6165</t>
+        </is>
+      </c>
+      <c r="AG14" t="inlineStr">
+        <is>
+          <t>670</t>
+        </is>
+      </c>
+      <c r="AH14" t="inlineStr">
+        <is>
+          <t>4759</t>
+        </is>
+      </c>
+      <c r="AI14" t="inlineStr">
+        <is>
+          <t>74</t>
+        </is>
+      </c>
+      <c r="AJ14" t="inlineStr">
+        <is>
+          <t>6152</t>
+        </is>
+      </c>
+      <c r="AK14" t="inlineStr">
+        <is>
+          <t>10500</t>
+        </is>
+      </c>
+      <c r="AL14" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
-      <c r="Y14" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
-      </c>
-      <c r="Z14" t="inlineStr">
-        <is>
-          <t>45</t>
-        </is>
-      </c>
-      <c r="AA14" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="AB14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AC14" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="AD14" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="AE14" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
-      </c>
-      <c r="AF14" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="AG14" t="inlineStr">
+      <c r="AM14" t="inlineStr">
+        <is>
+          <t>10264</t>
+        </is>
+      </c>
+      <c r="AN14" t="inlineStr">
+        <is>
+          <t>5945</t>
+        </is>
+      </c>
+      <c r="AO14" t="inlineStr">
+        <is>
+          <t>8601</t>
+        </is>
+      </c>
+      <c r="AP14" t="inlineStr">
+        <is>
+          <t>5553</t>
+        </is>
+      </c>
+      <c r="AQ14" t="inlineStr">
+        <is>
+          <t>17912</t>
+        </is>
+      </c>
+      <c r="AR14" t="inlineStr">
+        <is>
+          <t>7559</t>
+        </is>
+      </c>
+      <c r="AS14" t="inlineStr">
+        <is>
+          <t>5045</t>
+        </is>
+      </c>
+      <c r="AT14" t="inlineStr">
+        <is>
+          <t>5366</t>
+        </is>
+      </c>
+      <c r="AU14" t="inlineStr">
+        <is>
+          <t>8012</t>
+        </is>
+      </c>
+      <c r="AV14" t="inlineStr">
+        <is>
+          <t>11381</t>
+        </is>
+      </c>
+      <c r="AW14" t="inlineStr">
+        <is>
+          <t>1628</t>
+        </is>
+      </c>
+      <c r="AX14" t="inlineStr">
+        <is>
+          <t>3325</t>
+        </is>
+      </c>
+      <c r="AY14" t="inlineStr">
+        <is>
+          <t>7947</t>
+        </is>
+      </c>
+      <c r="AZ14" t="inlineStr">
+        <is>
+          <t>16957</t>
+        </is>
+      </c>
+      <c r="BA14" t="inlineStr">
+        <is>
+          <t>479</t>
+        </is>
+      </c>
+      <c r="BB14" t="inlineStr">
+        <is>
+          <t>1264</t>
+        </is>
+      </c>
+      <c r="BC14" t="inlineStr">
+        <is>
+          <t>4382</t>
+        </is>
+      </c>
+      <c r="BD14" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="AH14" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="AI14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AJ14" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="AK14" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
-      </c>
-      <c r="AL14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AM14" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="AN14" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="AO14" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="AP14" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="AQ14" t="inlineStr">
-        <is>
-          <t>18</t>
-        </is>
-      </c>
-      <c r="AR14" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="AS14" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="AT14" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="AU14" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="AV14" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
-      </c>
-      <c r="AW14" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="AX14" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="AY14" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="AZ14" t="inlineStr">
-        <is>
-          <t>17</t>
-        </is>
-      </c>
-      <c r="BA14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="BB14" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="BC14" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="BD14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="BE14" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>13430</t>
         </is>
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>3080</t>
         </is>
       </c>
       <c r="BG14" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>3462</t>
         </is>
       </c>
       <c r="BH14" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>10333</t>
         </is>
       </c>
       <c r="BI14" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>3337</t>
         </is>
       </c>
       <c r="BJ14" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>2093</t>
         </is>
       </c>
       <c r="BK14" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>30632</t>
         </is>
       </c>
       <c r="BL14" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>13711</t>
         </is>
       </c>
       <c r="BM14" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>13020</t>
         </is>
       </c>
       <c r="BN14" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>30781</t>
         </is>
       </c>
       <c r="BO14" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3774</t>
         </is>
       </c>
       <c r="BP14" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>39166</t>
         </is>
       </c>
       <c r="BQ14" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1889</t>
         </is>
       </c>
       <c r="BR14" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>5556</t>
         </is>
       </c>
       <c r="BS14" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>5651</t>
         </is>
       </c>
       <c r="BT14" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>19544</t>
         </is>
       </c>
       <c r="BU14" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>5463</t>
         </is>
       </c>
       <c r="BV14" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>3171</t>
         </is>
       </c>
       <c r="BW14" t="inlineStr">
         <is>
-          <t>59</t>
+          <t>58556</t>
         </is>
       </c>
     </row>
@@ -4679,27 +4679,27 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>153</t>
+          <t>152536</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>171</t>
+          <t>170582</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>191</t>
+          <t>190918</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>242</t>
+          <t>241926</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>273</t>
+          <t>272734</t>
         </is>
       </c>
       <c r="G15" t="inlineStr"/>
@@ -4707,7 +4707,7 @@
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr">
         <is>
-          <t>416</t>
+          <t>415685</t>
         </is>
       </c>
       <c r="K15" t="inlineStr"/>
@@ -4715,312 +4715,312 @@
       <c r="M15" t="inlineStr"/>
       <c r="N15" t="inlineStr">
         <is>
-          <t>442</t>
+          <t>442378</t>
         </is>
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>468</t>
+          <t>468347</t>
         </is>
       </c>
       <c r="P15" t="inlineStr">
         <is>
-          <t>571</t>
+          <t>570894</t>
         </is>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>646</t>
+          <t>646043</t>
         </is>
       </c>
       <c r="R15" t="inlineStr">
         <is>
-          <t>565</t>
+          <t>564881</t>
         </is>
       </c>
       <c r="S15" t="inlineStr">
         <is>
-          <t>722</t>
+          <t>722482</t>
         </is>
       </c>
       <c r="T15" t="inlineStr">
         <is>
-          <t>793</t>
+          <t>793307</t>
         </is>
       </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t>1067</t>
+          <t>1066774</t>
         </is>
       </c>
       <c r="V15" t="inlineStr">
         <is>
-          <t>851</t>
+          <t>851466</t>
         </is>
       </c>
       <c r="W15" t="inlineStr">
         <is>
-          <t>1069</t>
+          <t>1068611</t>
         </is>
       </c>
       <c r="X15" t="inlineStr">
         <is>
-          <t>1007</t>
+          <t>1007422</t>
         </is>
       </c>
       <c r="Y15" t="inlineStr">
         <is>
-          <t>1303</t>
+          <t>1303101</t>
         </is>
       </c>
       <c r="Z15" t="inlineStr">
         <is>
-          <t>844</t>
+          <t>844465</t>
         </is>
       </c>
       <c r="AA15" t="inlineStr">
         <is>
-          <t>884</t>
+          <t>884024</t>
         </is>
       </c>
       <c r="AB15" t="inlineStr">
         <is>
-          <t>955</t>
+          <t>954914</t>
         </is>
       </c>
       <c r="AC15" t="inlineStr">
         <is>
-          <t>1334</t>
+          <t>1333952</t>
         </is>
       </c>
       <c r="AD15" t="inlineStr">
         <is>
-          <t>951</t>
+          <t>951191</t>
         </is>
       </c>
       <c r="AE15" t="inlineStr">
         <is>
-          <t>852</t>
+          <t>852357</t>
         </is>
       </c>
       <c r="AF15" t="inlineStr">
         <is>
-          <t>910</t>
+          <t>910257</t>
         </is>
       </c>
       <c r="AG15" t="inlineStr">
         <is>
-          <t>1150</t>
+          <t>1149802</t>
         </is>
       </c>
       <c r="AH15" t="inlineStr">
         <is>
-          <t>1003</t>
+          <t>1003078</t>
         </is>
       </c>
       <c r="AI15" t="inlineStr">
         <is>
-          <t>970</t>
+          <t>969977</t>
         </is>
       </c>
       <c r="AJ15" t="inlineStr">
         <is>
-          <t>1317</t>
+          <t>1317054</t>
         </is>
       </c>
       <c r="AK15" t="inlineStr">
         <is>
-          <t>732</t>
+          <t>731574</t>
         </is>
       </c>
       <c r="AL15" t="inlineStr">
         <is>
-          <t>1075</t>
+          <t>1075047</t>
         </is>
       </c>
       <c r="AM15" t="inlineStr">
         <is>
-          <t>1171</t>
+          <t>1171007</t>
         </is>
       </c>
       <c r="AN15" t="inlineStr">
         <is>
-          <t>1243</t>
+          <t>1243131</t>
         </is>
       </c>
       <c r="AO15" t="inlineStr">
         <is>
-          <t>1189</t>
+          <t>1188704</t>
         </is>
       </c>
       <c r="AP15" t="inlineStr">
         <is>
-          <t>1474</t>
+          <t>1473788</t>
         </is>
       </c>
       <c r="AQ15" t="inlineStr">
         <is>
-          <t>1748</t>
+          <t>1748457</t>
         </is>
       </c>
       <c r="AR15" t="inlineStr">
         <is>
-          <t>1269</t>
+          <t>1268654</t>
         </is>
       </c>
       <c r="AS15" t="inlineStr">
         <is>
-          <t>1726</t>
+          <t>1726460</t>
         </is>
       </c>
       <c r="AT15" t="inlineStr">
         <is>
-          <t>1679</t>
+          <t>1679283</t>
         </is>
       </c>
       <c r="AU15" t="inlineStr">
         <is>
-          <t>1233</t>
+          <t>1232830</t>
         </is>
       </c>
       <c r="AV15" t="inlineStr">
         <is>
-          <t>1520</t>
+          <t>1520206</t>
         </is>
       </c>
       <c r="AW15" t="inlineStr">
         <is>
-          <t>2039</t>
+          <t>2038920</t>
         </is>
       </c>
       <c r="AX15" t="inlineStr">
         <is>
-          <t>1799</t>
+          <t>1798929</t>
         </is>
       </c>
       <c r="AY15" t="inlineStr">
         <is>
-          <t>1922</t>
+          <t>1922154</t>
         </is>
       </c>
       <c r="AZ15" t="inlineStr">
         <is>
-          <t>1844</t>
+          <t>1843617</t>
         </is>
       </c>
       <c r="BA15" t="inlineStr">
         <is>
-          <t>2743</t>
+          <t>2742896</t>
         </is>
       </c>
       <c r="BB15" t="inlineStr">
         <is>
-          <t>2361</t>
+          <t>2360635</t>
         </is>
       </c>
       <c r="BC15" t="inlineStr">
         <is>
-          <t>1768</t>
+          <t>1767906</t>
         </is>
       </c>
       <c r="BD15" t="inlineStr">
         <is>
-          <t>1732</t>
+          <t>1732012</t>
         </is>
       </c>
       <c r="BE15" t="inlineStr">
         <is>
-          <t>1764</t>
+          <t>1763715</t>
         </is>
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>1965</t>
+          <t>1965297</t>
         </is>
       </c>
       <c r="BG15" t="inlineStr">
         <is>
-          <t>1593</t>
+          <t>1592538</t>
         </is>
       </c>
       <c r="BH15" t="inlineStr">
         <is>
-          <t>2254</t>
+          <t>2254497</t>
         </is>
       </c>
       <c r="BI15" t="inlineStr">
         <is>
-          <t>2417</t>
+          <t>2417444</t>
         </is>
       </c>
       <c r="BJ15" t="inlineStr">
         <is>
-          <t>2739</t>
+          <t>2738601</t>
         </is>
       </c>
       <c r="BK15" t="inlineStr">
         <is>
-          <t>2276</t>
+          <t>2276351</t>
         </is>
       </c>
       <c r="BL15" t="inlineStr">
         <is>
-          <t>2526</t>
+          <t>2525765</t>
         </is>
       </c>
       <c r="BM15" t="inlineStr">
         <is>
-          <t>4064</t>
+          <t>4064328</t>
         </is>
       </c>
       <c r="BN15" t="inlineStr">
         <is>
-          <t>2508</t>
+          <t>2507640</t>
         </is>
       </c>
       <c r="BO15" t="inlineStr">
         <is>
-          <t>2485</t>
+          <t>2485180</t>
         </is>
       </c>
       <c r="BP15" t="inlineStr">
         <is>
-          <t>2868</t>
+          <t>2868218</t>
         </is>
       </c>
       <c r="BQ15" t="inlineStr">
         <is>
-          <t>3013</t>
+          <t>3013248</t>
         </is>
       </c>
       <c r="BR15" t="inlineStr">
         <is>
-          <t>2764</t>
+          <t>2763921</t>
         </is>
       </c>
       <c r="BS15" t="inlineStr">
         <is>
-          <t>2466</t>
+          <t>2465618</t>
         </is>
       </c>
       <c r="BT15" t="inlineStr">
         <is>
-          <t>2934</t>
+          <t>2933714</t>
         </is>
       </c>
       <c r="BU15" t="inlineStr">
         <is>
-          <t>2739</t>
+          <t>2739350</t>
         </is>
       </c>
       <c r="BV15" t="inlineStr">
         <is>
-          <t>2692</t>
+          <t>2691892</t>
         </is>
       </c>
       <c r="BW15" t="inlineStr">
         <is>
-          <t>2736</t>
+          <t>2736160</t>
         </is>
       </c>
     </row>
@@ -5032,372 +5032,372 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>413</t>
+          <t>413029</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>467</t>
+          <t>467067</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>405</t>
+          <t>404875</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>650</t>
+          <t>650281</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>586</t>
+          <t>586197</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>528</t>
+          <t>527821</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>348</t>
+          <t>348335</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>1168</t>
+          <t>1167870</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>561</t>
+          <t>560951</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>868</t>
+          <t>868056</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>642</t>
+          <t>641749</t>
         </is>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>846</t>
+          <t>845938</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>595</t>
+          <t>595442</t>
         </is>
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>1125</t>
+          <t>1125076</t>
         </is>
       </c>
       <c r="P16" t="inlineStr">
         <is>
-          <t>742</t>
+          <t>741985</t>
         </is>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>1150</t>
+          <t>1149575</t>
         </is>
       </c>
       <c r="R16" t="inlineStr">
         <is>
-          <t>939</t>
+          <t>939430</t>
         </is>
       </c>
       <c r="S16" t="inlineStr">
         <is>
-          <t>962</t>
+          <t>962208</t>
         </is>
       </c>
       <c r="T16" t="inlineStr">
         <is>
-          <t>971</t>
+          <t>970731</t>
         </is>
       </c>
       <c r="U16" t="inlineStr">
         <is>
-          <t>1644</t>
+          <t>1643847</t>
         </is>
       </c>
       <c r="V16" t="inlineStr">
         <is>
-          <t>1222</t>
+          <t>1221939</t>
         </is>
       </c>
       <c r="W16" t="inlineStr">
         <is>
-          <t>1196</t>
+          <t>1196398</t>
         </is>
       </c>
       <c r="X16" t="inlineStr">
         <is>
-          <t>-417</t>
+          <t>-417360</t>
         </is>
       </c>
       <c r="Y16" t="inlineStr">
         <is>
-          <t>-305</t>
+          <t>-305248</t>
         </is>
       </c>
       <c r="Z16" t="inlineStr">
         <is>
-          <t>597</t>
+          <t>596910</t>
         </is>
       </c>
       <c r="AA16" t="inlineStr">
         <is>
-          <t>606</t>
+          <t>605721</t>
         </is>
       </c>
       <c r="AB16" t="inlineStr">
         <is>
-          <t>616</t>
+          <t>616129</t>
         </is>
       </c>
       <c r="AC16" t="inlineStr">
         <is>
-          <t>-307</t>
+          <t>-306883</t>
         </is>
       </c>
       <c r="AD16" t="inlineStr">
         <is>
-          <t>489</t>
+          <t>488547</t>
         </is>
       </c>
       <c r="AE16" t="inlineStr">
         <is>
-          <t>766</t>
+          <t>766355</t>
         </is>
       </c>
       <c r="AF16" t="inlineStr">
         <is>
-          <t>426</t>
+          <t>426134</t>
         </is>
       </c>
       <c r="AG16" t="inlineStr">
         <is>
-          <t>457</t>
+          <t>457293</t>
         </is>
       </c>
       <c r="AH16" t="inlineStr">
         <is>
-          <t>607</t>
+          <t>606740</t>
         </is>
       </c>
       <c r="AI16" t="inlineStr">
         <is>
-          <t>615</t>
+          <t>615142</t>
         </is>
       </c>
       <c r="AJ16" t="inlineStr">
         <is>
-          <t>688</t>
+          <t>687654</t>
         </is>
       </c>
       <c r="AK16" t="inlineStr">
         <is>
-          <t>289</t>
+          <t>289070</t>
         </is>
       </c>
       <c r="AL16" t="inlineStr">
         <is>
-          <t>623</t>
+          <t>622697</t>
         </is>
       </c>
       <c r="AM16" t="inlineStr">
         <is>
-          <t>576</t>
+          <t>576240</t>
         </is>
       </c>
       <c r="AN16" t="inlineStr">
         <is>
-          <t>608</t>
+          <t>607983</t>
         </is>
       </c>
       <c r="AO16" t="inlineStr">
         <is>
-          <t>1078</t>
+          <t>1077669</t>
         </is>
       </c>
       <c r="AP16" t="inlineStr">
         <is>
-          <t>1202</t>
+          <t>1202109</t>
         </is>
       </c>
       <c r="AQ16" t="inlineStr">
         <is>
-          <t>1027</t>
+          <t>1026563</t>
         </is>
       </c>
       <c r="AR16" t="inlineStr">
         <is>
-          <t>1267</t>
+          <t>1266690</t>
         </is>
       </c>
       <c r="AS16" t="inlineStr">
         <is>
-          <t>1726</t>
+          <t>1726188</t>
         </is>
       </c>
       <c r="AT16" t="inlineStr">
         <is>
-          <t>1624</t>
+          <t>1624093</t>
         </is>
       </c>
       <c r="AU16" t="inlineStr">
         <is>
-          <t>1972</t>
+          <t>1972215</t>
         </is>
       </c>
       <c r="AV16" t="inlineStr">
         <is>
-          <t>1840</t>
+          <t>1840235</t>
         </is>
       </c>
       <c r="AW16" t="inlineStr">
         <is>
-          <t>2125</t>
+          <t>2125417</t>
         </is>
       </c>
       <c r="AX16" t="inlineStr">
         <is>
-          <t>1691</t>
+          <t>1691233</t>
         </is>
       </c>
       <c r="AY16" t="inlineStr">
         <is>
-          <t>2026</t>
+          <t>2026495</t>
         </is>
       </c>
       <c r="AZ16" t="inlineStr">
         <is>
-          <t>2005</t>
+          <t>2005239</t>
         </is>
       </c>
       <c r="BA16" t="inlineStr">
         <is>
-          <t>2067</t>
+          <t>2066790</t>
         </is>
       </c>
       <c r="BB16" t="inlineStr">
         <is>
-          <t>2018</t>
+          <t>2017589</t>
         </is>
       </c>
       <c r="BC16" t="inlineStr">
         <is>
-          <t>2334</t>
+          <t>2334194</t>
         </is>
       </c>
       <c r="BD16" t="inlineStr">
         <is>
-          <t>2754</t>
+          <t>2753568</t>
         </is>
       </c>
       <c r="BE16" t="inlineStr">
         <is>
-          <t>3432</t>
+          <t>3431690</t>
         </is>
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>3710</t>
+          <t>3710080</t>
         </is>
       </c>
       <c r="BG16" t="inlineStr">
         <is>
-          <t>4635</t>
+          <t>4634679</t>
         </is>
       </c>
       <c r="BH16" t="inlineStr">
         <is>
-          <t>3436</t>
+          <t>3435685</t>
         </is>
       </c>
       <c r="BI16" t="inlineStr">
         <is>
-          <t>3554</t>
+          <t>3553777</t>
         </is>
       </c>
       <c r="BJ16" t="inlineStr">
         <is>
-          <t>4111</t>
+          <t>4111162</t>
         </is>
       </c>
       <c r="BK16" t="inlineStr">
         <is>
-          <t>4647</t>
+          <t>4646996</t>
         </is>
       </c>
       <c r="BL16" t="inlineStr">
         <is>
-          <t>4565</t>
+          <t>4565196</t>
         </is>
       </c>
       <c r="BM16" t="inlineStr">
         <is>
-          <t>3862</t>
+          <t>3861668</t>
         </is>
       </c>
       <c r="BN16" t="inlineStr">
         <is>
-          <t>5413</t>
+          <t>5412511</t>
         </is>
       </c>
       <c r="BO16" t="inlineStr">
         <is>
-          <t>5538</t>
+          <t>5538340</t>
         </is>
       </c>
       <c r="BP16" t="inlineStr">
         <is>
-          <t>5556</t>
+          <t>5556164</t>
         </is>
       </c>
       <c r="BQ16" t="inlineStr">
         <is>
-          <t>5365</t>
+          <t>5365215</t>
         </is>
       </c>
       <c r="BR16" t="inlineStr">
         <is>
-          <t>5405</t>
+          <t>5404530</t>
         </is>
       </c>
       <c r="BS16" t="inlineStr">
         <is>
-          <t>6186</t>
+          <t>6186393</t>
         </is>
       </c>
       <c r="BT16" t="inlineStr">
         <is>
-          <t>5202</t>
+          <t>5202287</t>
         </is>
       </c>
       <c r="BU16" t="inlineStr">
         <is>
-          <t>5819</t>
+          <t>5818946</t>
         </is>
       </c>
       <c r="BV16" t="inlineStr">
         <is>
-          <t>5223</t>
+          <t>5222736</t>
         </is>
       </c>
       <c r="BW16" t="inlineStr">
         <is>
-          <t>6556</t>
+          <t>6556384</t>
         </is>
       </c>
     </row>
@@ -5419,17 +5419,17 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>31964</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>32752</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>73</t>
+          <t>73354</t>
         </is>
       </c>
       <c r="G17" t="inlineStr"/>
@@ -5437,7 +5437,7 @@
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr">
         <is>
-          <t>98</t>
+          <t>98405</t>
         </is>
       </c>
       <c r="K17" t="inlineStr"/>
@@ -5445,312 +5445,312 @@
       <c r="M17" t="inlineStr"/>
       <c r="N17" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>17059</t>
         </is>
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>91</t>
+          <t>90894</t>
         </is>
       </c>
       <c r="P17" t="inlineStr">
         <is>
-          <t>75</t>
+          <t>74795</t>
         </is>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>44655</t>
         </is>
       </c>
       <c r="R17" t="inlineStr">
         <is>
-          <t>76</t>
+          <t>76004</t>
         </is>
       </c>
       <c r="S17" t="inlineStr">
         <is>
-          <t>137</t>
+          <t>137214</t>
         </is>
       </c>
       <c r="T17" t="inlineStr">
         <is>
-          <t>92</t>
+          <t>91767</t>
         </is>
       </c>
       <c r="U17" t="inlineStr">
         <is>
-          <t>-10</t>
+          <t>-10190</t>
         </is>
       </c>
       <c r="V17" t="inlineStr">
         <is>
-          <t>119</t>
+          <t>119466</t>
         </is>
       </c>
       <c r="W17" t="inlineStr">
         <is>
-          <t>184</t>
+          <t>183835</t>
         </is>
       </c>
       <c r="X17" t="inlineStr">
         <is>
-          <t>274</t>
+          <t>274103</t>
         </is>
       </c>
       <c r="Y17" t="inlineStr">
         <is>
-          <t>-90</t>
+          <t>-89862</t>
         </is>
       </c>
       <c r="Z17" t="inlineStr">
         <is>
-          <t>202</t>
+          <t>202015</t>
         </is>
       </c>
       <c r="AA17" t="inlineStr">
         <is>
-          <t>57</t>
+          <t>56928</t>
         </is>
       </c>
       <c r="AB17" t="inlineStr">
         <is>
-          <t>82</t>
+          <t>82197</t>
         </is>
       </c>
       <c r="AC17" t="inlineStr">
         <is>
-          <t>138</t>
+          <t>137583</t>
         </is>
       </c>
       <c r="AD17" t="inlineStr">
         <is>
-          <t>170</t>
+          <t>170294</t>
         </is>
       </c>
       <c r="AE17" t="inlineStr">
         <is>
-          <t>354</t>
+          <t>354069</t>
         </is>
       </c>
       <c r="AF17" t="inlineStr">
         <is>
-          <t>86</t>
+          <t>85669</t>
         </is>
       </c>
       <c r="AG17" t="inlineStr">
         <is>
-          <t>313</t>
+          <t>312896</t>
         </is>
       </c>
       <c r="AH17" t="inlineStr">
         <is>
-          <t>247</t>
+          <t>247475</t>
         </is>
       </c>
       <c r="AI17" t="inlineStr">
         <is>
-          <t>244</t>
+          <t>243529</t>
         </is>
       </c>
       <c r="AJ17" t="inlineStr">
         <is>
-          <t>328</t>
+          <t>327986</t>
         </is>
       </c>
       <c r="AK17" t="inlineStr">
         <is>
-          <t>65</t>
+          <t>65465</t>
         </is>
       </c>
       <c r="AL17" t="inlineStr">
         <is>
-          <t>233</t>
+          <t>233447</t>
         </is>
       </c>
       <c r="AM17" t="inlineStr">
         <is>
-          <t>137</t>
+          <t>137047</t>
         </is>
       </c>
       <c r="AN17" t="inlineStr">
         <is>
-          <t>192</t>
+          <t>192153</t>
         </is>
       </c>
       <c r="AO17" t="inlineStr">
         <is>
-          <t>655</t>
+          <t>654940</t>
         </is>
       </c>
       <c r="AP17" t="inlineStr">
         <is>
-          <t>607</t>
+          <t>607321</t>
         </is>
       </c>
       <c r="AQ17" t="inlineStr">
         <is>
-          <t>359</t>
+          <t>359174</t>
         </is>
       </c>
       <c r="AR17" t="inlineStr">
         <is>
-          <t>525</t>
+          <t>524844</t>
         </is>
       </c>
       <c r="AS17" t="inlineStr">
         <is>
-          <t>1074</t>
+          <t>1074004</t>
         </is>
       </c>
       <c r="AT17" t="inlineStr">
         <is>
-          <t>134</t>
+          <t>134006</t>
         </is>
       </c>
       <c r="AU17" t="inlineStr">
         <is>
-          <t>311</t>
+          <t>311286</t>
         </is>
       </c>
       <c r="AV17" t="inlineStr">
         <is>
-          <t>215</t>
+          <t>214904</t>
         </is>
       </c>
       <c r="AW17" t="inlineStr">
         <is>
-          <t>272</t>
+          <t>272215</t>
         </is>
       </c>
       <c r="AX17" t="inlineStr">
         <is>
-          <t>-16</t>
+          <t>-15661</t>
         </is>
       </c>
       <c r="AY17" t="inlineStr">
         <is>
-          <t>111</t>
+          <t>111156</t>
         </is>
       </c>
       <c r="AZ17" t="inlineStr">
         <is>
-          <t>66</t>
+          <t>66466</t>
         </is>
       </c>
       <c r="BA17" t="inlineStr">
         <is>
-          <t>112</t>
+          <t>111860</t>
         </is>
       </c>
       <c r="BB17" t="inlineStr">
         <is>
-          <t>93</t>
+          <t>92666</t>
         </is>
       </c>
       <c r="BC17" t="inlineStr">
         <is>
-          <t>440</t>
+          <t>439530</t>
         </is>
       </c>
       <c r="BD17" t="inlineStr">
         <is>
-          <t>162</t>
+          <t>161996</t>
         </is>
       </c>
       <c r="BE17" t="inlineStr">
         <is>
-          <t>247</t>
+          <t>246961</t>
         </is>
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>606</t>
+          <t>605761</t>
         </is>
       </c>
       <c r="BG17" t="inlineStr">
         <is>
-          <t>1386</t>
+          <t>1386245</t>
         </is>
       </c>
       <c r="BH17" t="inlineStr">
         <is>
-          <t>820</t>
+          <t>820086</t>
         </is>
       </c>
       <c r="BI17" t="inlineStr">
         <is>
-          <t>524</t>
+          <t>524017</t>
         </is>
       </c>
       <c r="BJ17" t="inlineStr">
         <is>
-          <t>-3</t>
+          <t>-2843</t>
         </is>
       </c>
       <c r="BK17" t="inlineStr">
         <is>
-          <t>-267</t>
+          <t>-267364</t>
         </is>
       </c>
       <c r="BL17" t="inlineStr">
         <is>
-          <t>90</t>
+          <t>90436</t>
         </is>
       </c>
       <c r="BM17" t="inlineStr">
         <is>
-          <t>251</t>
+          <t>250585</t>
         </is>
       </c>
       <c r="BN17" t="inlineStr">
         <is>
-          <t>256</t>
+          <t>256014</t>
         </is>
       </c>
       <c r="BO17" t="inlineStr">
         <is>
-          <t>706</t>
+          <t>705893</t>
         </is>
       </c>
       <c r="BP17" t="inlineStr">
         <is>
-          <t>521</t>
+          <t>520683</t>
         </is>
       </c>
       <c r="BQ17" t="inlineStr">
         <is>
-          <t>322</t>
+          <t>321641</t>
         </is>
       </c>
       <c r="BR17" t="inlineStr">
         <is>
-          <t>512</t>
+          <t>512217</t>
         </is>
       </c>
       <c r="BS17" t="inlineStr">
         <is>
-          <t>588</t>
+          <t>588150</t>
         </is>
       </c>
       <c r="BT17" t="inlineStr">
         <is>
-          <t>358</t>
+          <t>358243</t>
         </is>
       </c>
       <c r="BU17" t="inlineStr">
         <is>
-          <t>148</t>
+          <t>147675</t>
         </is>
       </c>
       <c r="BV17" t="inlineStr">
         <is>
-          <t>626</t>
+          <t>626128</t>
         </is>
       </c>
       <c r="BW17" t="inlineStr">
         <is>
-          <t>463</t>
+          <t>463039</t>
         </is>
       </c>
     </row>
@@ -5762,372 +5762,372 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>413</t>
+          <t>413029</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>467</t>
+          <t>467067</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>373</t>
+          <t>372911</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>618</t>
+          <t>617529</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>513</t>
+          <t>512843</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>528</t>
+          <t>527821</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>348</t>
+          <t>348335</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>1168</t>
+          <t>1167870</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>463</t>
+          <t>462546</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>868</t>
+          <t>868056</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>642</t>
+          <t>641749</t>
         </is>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>846</t>
+          <t>845938</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>578</t>
+          <t>578383</t>
         </is>
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>1034</t>
+          <t>1034182</t>
         </is>
       </c>
       <c r="P18" t="inlineStr">
         <is>
-          <t>667</t>
+          <t>667190</t>
         </is>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>1105</t>
+          <t>1104920</t>
         </is>
       </c>
       <c r="R18" t="inlineStr">
         <is>
-          <t>863</t>
+          <t>863426</t>
         </is>
       </c>
       <c r="S18" t="inlineStr">
         <is>
-          <t>825</t>
+          <t>824994</t>
         </is>
       </c>
       <c r="T18" t="inlineStr">
         <is>
-          <t>879</t>
+          <t>878964</t>
         </is>
       </c>
       <c r="U18" t="inlineStr">
         <is>
-          <t>1654</t>
+          <t>1654037</t>
         </is>
       </c>
       <c r="V18" t="inlineStr">
         <is>
-          <t>1102</t>
+          <t>1102473</t>
         </is>
       </c>
       <c r="W18" t="inlineStr">
         <is>
-          <t>1013</t>
+          <t>1012563</t>
         </is>
       </c>
       <c r="X18" t="inlineStr">
         <is>
-          <t>-691</t>
+          <t>-691463</t>
         </is>
       </c>
       <c r="Y18" t="inlineStr">
         <is>
-          <t>-215</t>
+          <t>-215386</t>
         </is>
       </c>
       <c r="Z18" t="inlineStr">
         <is>
-          <t>395</t>
+          <t>394895</t>
         </is>
       </c>
       <c r="AA18" t="inlineStr">
         <is>
-          <t>549</t>
+          <t>548793</t>
         </is>
       </c>
       <c r="AB18" t="inlineStr">
         <is>
-          <t>534</t>
+          <t>533932</t>
         </is>
       </c>
       <c r="AC18" t="inlineStr">
         <is>
-          <t>-444</t>
+          <t>-444466</t>
         </is>
       </c>
       <c r="AD18" t="inlineStr">
         <is>
-          <t>318</t>
+          <t>318253</t>
         </is>
       </c>
       <c r="AE18" t="inlineStr">
         <is>
-          <t>412</t>
+          <t>412286</t>
         </is>
       </c>
       <c r="AF18" t="inlineStr">
         <is>
-          <t>340</t>
+          <t>340465</t>
         </is>
       </c>
       <c r="AG18" t="inlineStr">
         <is>
-          <t>144</t>
+          <t>144397</t>
         </is>
       </c>
       <c r="AH18" t="inlineStr">
         <is>
-          <t>359</t>
+          <t>359265</t>
         </is>
       </c>
       <c r="AI18" t="inlineStr">
         <is>
-          <t>372</t>
+          <t>371613</t>
         </is>
       </c>
       <c r="AJ18" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>359668</t>
         </is>
       </c>
       <c r="AK18" t="inlineStr">
         <is>
-          <t>224</t>
+          <t>223605</t>
         </is>
       </c>
       <c r="AL18" t="inlineStr">
         <is>
-          <t>389</t>
+          <t>389250</t>
         </is>
       </c>
       <c r="AM18" t="inlineStr">
         <is>
-          <t>439</t>
+          <t>439193</t>
         </is>
       </c>
       <c r="AN18" t="inlineStr">
         <is>
-          <t>416</t>
+          <t>415830</t>
         </is>
       </c>
       <c r="AO18" t="inlineStr">
         <is>
-          <t>423</t>
+          <t>422729</t>
         </is>
       </c>
       <c r="AP18" t="inlineStr">
         <is>
-          <t>595</t>
+          <t>594788</t>
         </is>
       </c>
       <c r="AQ18" t="inlineStr">
         <is>
-          <t>667</t>
+          <t>667389</t>
         </is>
       </c>
       <c r="AR18" t="inlineStr">
         <is>
-          <t>742</t>
+          <t>741846</t>
         </is>
       </c>
       <c r="AS18" t="inlineStr">
         <is>
-          <t>652</t>
+          <t>652184</t>
         </is>
       </c>
       <c r="AT18" t="inlineStr">
         <is>
-          <t>1490</t>
+          <t>1490087</t>
         </is>
       </c>
       <c r="AU18" t="inlineStr">
         <is>
-          <t>1661</t>
+          <t>1660929</t>
         </is>
       </c>
       <c r="AV18" t="inlineStr">
         <is>
-          <t>1625</t>
+          <t>1625331</t>
         </is>
       </c>
       <c r="AW18" t="inlineStr">
         <is>
-          <t>1853</t>
+          <t>1853202</t>
         </is>
       </c>
       <c r="AX18" t="inlineStr">
         <is>
-          <t>1707</t>
+          <t>1706894</t>
         </is>
       </c>
       <c r="AY18" t="inlineStr">
         <is>
-          <t>1915</t>
+          <t>1915339</t>
         </is>
       </c>
       <c r="AZ18" t="inlineStr">
         <is>
-          <t>1939</t>
+          <t>1938773</t>
         </is>
       </c>
       <c r="BA18" t="inlineStr">
         <is>
-          <t>1955</t>
+          <t>1954930</t>
         </is>
       </c>
       <c r="BB18" t="inlineStr">
         <is>
-          <t>1925</t>
+          <t>1924923</t>
         </is>
       </c>
       <c r="BC18" t="inlineStr">
         <is>
-          <t>1895</t>
+          <t>1894664</t>
         </is>
       </c>
       <c r="BD18" t="inlineStr">
         <is>
-          <t>2592</t>
+          <t>2591572</t>
         </is>
       </c>
       <c r="BE18" t="inlineStr">
         <is>
-          <t>3185</t>
+          <t>3184729</t>
         </is>
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>3104</t>
+          <t>3104319</t>
         </is>
       </c>
       <c r="BG18" t="inlineStr">
         <is>
-          <t>3248</t>
+          <t>3248434</t>
         </is>
       </c>
       <c r="BH18" t="inlineStr">
         <is>
-          <t>2616</t>
+          <t>2615599</t>
         </is>
       </c>
       <c r="BI18" t="inlineStr">
         <is>
-          <t>3030</t>
+          <t>3029760</t>
         </is>
       </c>
       <c r="BJ18" t="inlineStr">
         <is>
-          <t>4114</t>
+          <t>4114005</t>
         </is>
       </c>
       <c r="BK18" t="inlineStr">
         <is>
-          <t>4914</t>
+          <t>4914360</t>
         </is>
       </c>
       <c r="BL18" t="inlineStr">
         <is>
-          <t>4475</t>
+          <t>4474760</t>
         </is>
       </c>
       <c r="BM18" t="inlineStr">
         <is>
-          <t>3611</t>
+          <t>3611083</t>
         </is>
       </c>
       <c r="BN18" t="inlineStr">
         <is>
-          <t>5156</t>
+          <t>5156497</t>
         </is>
       </c>
       <c r="BO18" t="inlineStr">
         <is>
-          <t>4832</t>
+          <t>4832447</t>
         </is>
       </c>
       <c r="BP18" t="inlineStr">
         <is>
-          <t>5035</t>
+          <t>5035481</t>
         </is>
       </c>
       <c r="BQ18" t="inlineStr">
         <is>
-          <t>5044</t>
+          <t>5043574</t>
         </is>
       </c>
       <c r="BR18" t="inlineStr">
         <is>
-          <t>4892</t>
+          <t>4892313</t>
         </is>
       </c>
       <c r="BS18" t="inlineStr">
         <is>
-          <t>5598</t>
+          <t>5598243</t>
         </is>
       </c>
       <c r="BT18" t="inlineStr">
         <is>
-          <t>4844</t>
+          <t>4844044</t>
         </is>
       </c>
       <c r="BU18" t="inlineStr">
         <is>
-          <t>5671</t>
+          <t>5671271</t>
         </is>
       </c>
       <c r="BV18" t="inlineStr">
         <is>
-          <t>4597</t>
+          <t>4596608</t>
         </is>
       </c>
       <c r="BW18" t="inlineStr">
         <is>
-          <t>6093</t>
+          <t>6093345</t>
         </is>
       </c>
     </row>
@@ -6139,372 +6139,372 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>359521</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>436</t>
+          <t>436381</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>373</t>
+          <t>372911</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>582</t>
+          <t>581787</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>438</t>
+          <t>438464</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>456</t>
+          <t>456146</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>298</t>
+          <t>298434</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>1014</t>
+          <t>1013876</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>359889</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>685</t>
+          <t>685331</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>496</t>
+          <t>496469</t>
         </is>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>654</t>
+          <t>653810</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>439</t>
+          <t>438663</t>
         </is>
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>850</t>
+          <t>849725</t>
         </is>
       </c>
       <c r="P19" t="inlineStr">
         <is>
-          <t>479</t>
+          <t>478676</t>
         </is>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>851</t>
+          <t>851134</t>
         </is>
       </c>
       <c r="R19" t="inlineStr">
         <is>
-          <t>636</t>
+          <t>636169</t>
         </is>
       </c>
       <c r="S19" t="inlineStr">
         <is>
-          <t>571</t>
+          <t>571353</t>
         </is>
       </c>
       <c r="T19" t="inlineStr">
         <is>
-          <t>659</t>
+          <t>658662</t>
         </is>
       </c>
       <c r="U19" t="inlineStr">
         <is>
-          <t>1360</t>
+          <t>1360151</t>
         </is>
       </c>
       <c r="V19" t="inlineStr">
         <is>
-          <t>837</t>
+          <t>837205</t>
         </is>
       </c>
       <c r="W19" t="inlineStr">
         <is>
-          <t>775</t>
+          <t>775262</t>
         </is>
       </c>
       <c r="X19" t="inlineStr">
         <is>
-          <t>-521</t>
+          <t>-520670</t>
         </is>
       </c>
       <c r="Y19" t="inlineStr">
         <is>
-          <t>-159</t>
+          <t>-158559</t>
         </is>
       </c>
       <c r="Z19" t="inlineStr">
         <is>
-          <t>307</t>
+          <t>307030</t>
         </is>
       </c>
       <c r="AA19" t="inlineStr">
         <is>
-          <t>409</t>
+          <t>408938</t>
         </is>
       </c>
       <c r="AB19" t="inlineStr">
         <is>
-          <t>401</t>
+          <t>400823</t>
         </is>
       </c>
       <c r="AC19" t="inlineStr">
         <is>
-          <t>-293</t>
+          <t>-293126</t>
         </is>
       </c>
       <c r="AD19" t="inlineStr">
         <is>
-          <t>250</t>
+          <t>250018</t>
         </is>
       </c>
       <c r="AE19" t="inlineStr">
         <is>
-          <t>323</t>
+          <t>323258</t>
         </is>
       </c>
       <c r="AF19" t="inlineStr">
         <is>
-          <t>264</t>
+          <t>264194</t>
         </is>
       </c>
       <c r="AG19" t="inlineStr">
         <is>
-          <t>114</t>
+          <t>114332</t>
         </is>
       </c>
       <c r="AH19" t="inlineStr">
         <is>
-          <t>281</t>
+          <t>280714</t>
         </is>
       </c>
       <c r="AI19" t="inlineStr">
         <is>
-          <t>290</t>
+          <t>289891</t>
         </is>
       </c>
       <c r="AJ19" t="inlineStr">
         <is>
-          <t>284</t>
+          <t>284033</t>
         </is>
       </c>
       <c r="AK19" t="inlineStr">
         <is>
-          <t>176</t>
+          <t>175684</t>
         </is>
       </c>
       <c r="AL19" t="inlineStr">
         <is>
-          <t>310</t>
+          <t>310276</t>
         </is>
       </c>
       <c r="AM19" t="inlineStr">
         <is>
-          <t>353</t>
+          <t>352719</t>
         </is>
       </c>
       <c r="AN19" t="inlineStr">
         <is>
-          <t>334</t>
+          <t>333822</t>
         </is>
       </c>
       <c r="AO19" t="inlineStr">
         <is>
-          <t>328</t>
+          <t>328357</t>
         </is>
       </c>
       <c r="AP19" t="inlineStr">
         <is>
-          <t>478</t>
+          <t>478166</t>
         </is>
       </c>
       <c r="AQ19" t="inlineStr">
         <is>
-          <t>502</t>
+          <t>501948</t>
         </is>
       </c>
       <c r="AR19" t="inlineStr">
         <is>
-          <t>547</t>
+          <t>546797</t>
         </is>
       </c>
       <c r="AS19" t="inlineStr">
         <is>
-          <t>591</t>
+          <t>591220</t>
         </is>
       </c>
       <c r="AT19" t="inlineStr">
         <is>
-          <t>1144</t>
+          <t>1144486</t>
         </is>
       </c>
       <c r="AU19" t="inlineStr">
         <is>
-          <t>1318</t>
+          <t>1317913</t>
         </is>
       </c>
       <c r="AV19" t="inlineStr">
         <is>
-          <t>1309</t>
+          <t>1309422</t>
         </is>
       </c>
       <c r="AW19" t="inlineStr">
         <is>
-          <t>1356</t>
+          <t>1356144</t>
         </is>
       </c>
       <c r="AX19" t="inlineStr">
         <is>
-          <t>1366</t>
+          <t>1365889</t>
         </is>
       </c>
       <c r="AY19" t="inlineStr">
         <is>
-          <t>1533</t>
+          <t>1532743</t>
         </is>
       </c>
       <c r="AZ19" t="inlineStr">
         <is>
-          <t>1549</t>
+          <t>1549212</t>
         </is>
       </c>
       <c r="BA19" t="inlineStr">
         <is>
-          <t>1549</t>
+          <t>1549241</t>
         </is>
       </c>
       <c r="BB19" t="inlineStr">
         <is>
-          <t>1537</t>
+          <t>1537053</t>
         </is>
       </c>
       <c r="BC19" t="inlineStr">
         <is>
-          <t>1522</t>
+          <t>1521655</t>
         </is>
       </c>
       <c r="BD19" t="inlineStr">
         <is>
-          <t>2075</t>
+          <t>2074572</t>
         </is>
       </c>
       <c r="BE19" t="inlineStr">
         <is>
-          <t>2550</t>
+          <t>2549543</t>
         </is>
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>2483</t>
+          <t>2483401</t>
         </is>
       </c>
       <c r="BG19" t="inlineStr">
         <is>
-          <t>2588</t>
+          <t>2588235</t>
         </is>
       </c>
       <c r="BH19" t="inlineStr">
         <is>
-          <t>2103</t>
+          <t>2102615</t>
         </is>
       </c>
       <c r="BI19" t="inlineStr">
         <is>
-          <t>2428</t>
+          <t>2428495</t>
         </is>
       </c>
       <c r="BJ19" t="inlineStr">
         <is>
-          <t>3288</t>
+          <t>3287535</t>
         </is>
       </c>
       <c r="BK19" t="inlineStr">
         <is>
-          <t>3943</t>
+          <t>3943148</t>
         </is>
       </c>
       <c r="BL19" t="inlineStr">
         <is>
-          <t>3587</t>
+          <t>3586992</t>
         </is>
       </c>
       <c r="BM19" t="inlineStr">
         <is>
-          <t>2871</t>
+          <t>2870518</t>
         </is>
       </c>
       <c r="BN19" t="inlineStr">
         <is>
-          <t>4135</t>
+          <t>4135029</t>
         </is>
       </c>
       <c r="BO19" t="inlineStr">
         <is>
-          <t>3866</t>
+          <t>3865846</t>
         </is>
       </c>
       <c r="BP19" t="inlineStr">
         <is>
-          <t>4038</t>
+          <t>4037579</t>
         </is>
       </c>
       <c r="BQ19" t="inlineStr">
         <is>
-          <t>4006</t>
+          <t>4006279</t>
         </is>
       </c>
       <c r="BR19" t="inlineStr">
         <is>
-          <t>3905</t>
+          <t>3905419</t>
         </is>
       </c>
       <c r="BS19" t="inlineStr">
         <is>
-          <t>4469</t>
+          <t>4468590</t>
         </is>
       </c>
       <c r="BT19" t="inlineStr">
         <is>
-          <t>3870</t>
+          <t>3870395</t>
         </is>
       </c>
       <c r="BU19" t="inlineStr">
         <is>
-          <t>4545</t>
+          <t>4545364</t>
         </is>
       </c>
       <c r="BV19" t="inlineStr">
         <is>
-          <t>3678</t>
+          <t>3678266</t>
         </is>
       </c>
       <c r="BW19" t="inlineStr">
         <is>
-          <t>4881</t>
+          <t>4881159</t>
         </is>
       </c>
     </row>
@@ -6516,372 +6516,372 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>359521</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>436</t>
+          <t>436381</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>373</t>
+          <t>372911</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>582</t>
+          <t>581787</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>438</t>
+          <t>438464</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>456</t>
+          <t>456146</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>298</t>
+          <t>298434</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>1014</t>
+          <t>1013876</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>359889</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>685</t>
+          <t>685331</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>496</t>
+          <t>496469</t>
         </is>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>654</t>
+          <t>653810</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>439</t>
+          <t>438663</t>
         </is>
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>850</t>
+          <t>849725</t>
         </is>
       </c>
       <c r="P20" t="inlineStr">
         <is>
-          <t>479</t>
+          <t>478676</t>
         </is>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>851</t>
+          <t>851134</t>
         </is>
       </c>
       <c r="R20" t="inlineStr">
         <is>
-          <t>636</t>
+          <t>636169</t>
         </is>
       </c>
       <c r="S20" t="inlineStr">
         <is>
-          <t>571</t>
+          <t>571353</t>
         </is>
       </c>
       <c r="T20" t="inlineStr">
         <is>
-          <t>659</t>
+          <t>658662</t>
         </is>
       </c>
       <c r="U20" t="inlineStr">
         <is>
-          <t>1360</t>
+          <t>1360151</t>
         </is>
       </c>
       <c r="V20" t="inlineStr">
         <is>
-          <t>837</t>
+          <t>837205</t>
         </is>
       </c>
       <c r="W20" t="inlineStr">
         <is>
-          <t>775</t>
+          <t>775262</t>
         </is>
       </c>
       <c r="X20" t="inlineStr">
         <is>
-          <t>-521</t>
+          <t>-520670</t>
         </is>
       </c>
       <c r="Y20" t="inlineStr">
         <is>
-          <t>-159</t>
+          <t>-158559</t>
         </is>
       </c>
       <c r="Z20" t="inlineStr">
         <is>
-          <t>307</t>
+          <t>307030</t>
         </is>
       </c>
       <c r="AA20" t="inlineStr">
         <is>
-          <t>409</t>
+          <t>408938</t>
         </is>
       </c>
       <c r="AB20" t="inlineStr">
         <is>
-          <t>401</t>
+          <t>400823</t>
         </is>
       </c>
       <c r="AC20" t="inlineStr">
         <is>
-          <t>-293</t>
+          <t>-293126</t>
         </is>
       </c>
       <c r="AD20" t="inlineStr">
         <is>
-          <t>250</t>
+          <t>250018</t>
         </is>
       </c>
       <c r="AE20" t="inlineStr">
         <is>
-          <t>323</t>
+          <t>323258</t>
         </is>
       </c>
       <c r="AF20" t="inlineStr">
         <is>
-          <t>264</t>
+          <t>264194</t>
         </is>
       </c>
       <c r="AG20" t="inlineStr">
         <is>
-          <t>114</t>
+          <t>114332</t>
         </is>
       </c>
       <c r="AH20" t="inlineStr">
         <is>
-          <t>281</t>
+          <t>280714</t>
         </is>
       </c>
       <c r="AI20" t="inlineStr">
         <is>
-          <t>290</t>
+          <t>289891</t>
         </is>
       </c>
       <c r="AJ20" t="inlineStr">
         <is>
-          <t>284</t>
+          <t>284033</t>
         </is>
       </c>
       <c r="AK20" t="inlineStr">
         <is>
-          <t>176</t>
+          <t>175684</t>
         </is>
       </c>
       <c r="AL20" t="inlineStr">
         <is>
-          <t>310</t>
+          <t>310276</t>
         </is>
       </c>
       <c r="AM20" t="inlineStr">
         <is>
-          <t>353</t>
+          <t>352719</t>
         </is>
       </c>
       <c r="AN20" t="inlineStr">
         <is>
-          <t>334</t>
+          <t>333822</t>
         </is>
       </c>
       <c r="AO20" t="inlineStr">
         <is>
-          <t>328</t>
+          <t>328357</t>
         </is>
       </c>
       <c r="AP20" t="inlineStr">
         <is>
-          <t>478</t>
+          <t>478166</t>
         </is>
       </c>
       <c r="AQ20" t="inlineStr">
         <is>
-          <t>502</t>
+          <t>501948</t>
         </is>
       </c>
       <c r="AR20" t="inlineStr">
         <is>
-          <t>547</t>
+          <t>546797</t>
         </is>
       </c>
       <c r="AS20" t="inlineStr">
         <is>
-          <t>591</t>
+          <t>591220</t>
         </is>
       </c>
       <c r="AT20" t="inlineStr">
         <is>
-          <t>1144</t>
+          <t>1144486</t>
         </is>
       </c>
       <c r="AU20" t="inlineStr">
         <is>
-          <t>1318</t>
+          <t>1317913</t>
         </is>
       </c>
       <c r="AV20" t="inlineStr">
         <is>
-          <t>1309</t>
+          <t>1309422</t>
         </is>
       </c>
       <c r="AW20" t="inlineStr">
         <is>
-          <t>1356</t>
+          <t>1356144</t>
         </is>
       </c>
       <c r="AX20" t="inlineStr">
         <is>
-          <t>1366</t>
+          <t>1365889</t>
         </is>
       </c>
       <c r="AY20" t="inlineStr">
         <is>
-          <t>1533</t>
+          <t>1532743</t>
         </is>
       </c>
       <c r="AZ20" t="inlineStr">
         <is>
-          <t>1549</t>
+          <t>1549212</t>
         </is>
       </c>
       <c r="BA20" t="inlineStr">
         <is>
-          <t>1549</t>
+          <t>1549241</t>
         </is>
       </c>
       <c r="BB20" t="inlineStr">
         <is>
-          <t>1537</t>
+          <t>1537053</t>
         </is>
       </c>
       <c r="BC20" t="inlineStr">
         <is>
-          <t>1522</t>
+          <t>1521655</t>
         </is>
       </c>
       <c r="BD20" t="inlineStr">
         <is>
-          <t>2075</t>
+          <t>2074572</t>
         </is>
       </c>
       <c r="BE20" t="inlineStr">
         <is>
-          <t>2550</t>
+          <t>2549543</t>
         </is>
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>2483</t>
+          <t>2483401</t>
         </is>
       </c>
       <c r="BG20" t="inlineStr">
         <is>
-          <t>2588</t>
+          <t>2588235</t>
         </is>
       </c>
       <c r="BH20" t="inlineStr">
         <is>
-          <t>2103</t>
+          <t>2102615</t>
         </is>
       </c>
       <c r="BI20" t="inlineStr">
         <is>
-          <t>2428</t>
+          <t>2428495</t>
         </is>
       </c>
       <c r="BJ20" t="inlineStr">
         <is>
-          <t>3288</t>
+          <t>3287535</t>
         </is>
       </c>
       <c r="BK20" t="inlineStr">
         <is>
-          <t>3943</t>
+          <t>3943148</t>
         </is>
       </c>
       <c r="BL20" t="inlineStr">
         <is>
-          <t>3587</t>
+          <t>3586992</t>
         </is>
       </c>
       <c r="BM20" t="inlineStr">
         <is>
-          <t>2871</t>
+          <t>2870518</t>
         </is>
       </c>
       <c r="BN20" t="inlineStr">
         <is>
-          <t>4135</t>
+          <t>4135029</t>
         </is>
       </c>
       <c r="BO20" t="inlineStr">
         <is>
-          <t>3866</t>
+          <t>3865846</t>
         </is>
       </c>
       <c r="BP20" t="inlineStr">
         <is>
-          <t>4038</t>
+          <t>4037579</t>
         </is>
       </c>
       <c r="BQ20" t="inlineStr">
         <is>
-          <t>4006</t>
+          <t>4006279</t>
         </is>
       </c>
       <c r="BR20" t="inlineStr">
         <is>
-          <t>3905</t>
+          <t>3905419</t>
         </is>
       </c>
       <c r="BS20" t="inlineStr">
         <is>
-          <t>4469</t>
+          <t>4468590</t>
         </is>
       </c>
       <c r="BT20" t="inlineStr">
         <is>
-          <t>3870</t>
+          <t>3870395</t>
         </is>
       </c>
       <c r="BU20" t="inlineStr">
         <is>
-          <t>4545</t>
+          <t>4545364</t>
         </is>
       </c>
       <c r="BV20" t="inlineStr">
         <is>
-          <t>3678</t>
+          <t>3678266</t>
         </is>
       </c>
       <c r="BW20" t="inlineStr">
         <is>
-          <t>4881</t>
+          <t>4881159</t>
         </is>
       </c>
     </row>
